--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F713249-7440-2544-B38D-496EFE4063AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D60908A-8A28-684C-A3FD-C714F2D4EEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="7000" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="60000" yWindow="5180" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="238">
   <si>
     <t>Epoch</t>
   </si>
@@ -743,6 +743,24 @@
   </si>
   <si>
     <t>The main design for the study</t>
+  </si>
+  <si>
+    <t>procedureName</t>
+  </si>
+  <si>
+    <t>procedureDescription</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Test Eight</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test Nine</t>
   </si>
 </sst>
 </file>
@@ -890,7 +908,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -900,12 +924,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1840,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
@@ -1854,111 +1872,111 @@
       <c r="A1" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
@@ -2077,17 +2095,17 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
@@ -2105,18 +2123,18 @@
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="32">
         <v>1</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32">
         <v>2</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32">
         <v>3</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2143,18 +2161,18 @@
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2177,18 +2195,18 @@
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="30"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2211,18 +2229,18 @@
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="29"/>
+      <c r="E5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="31"/>
       <c r="K5" s="2" t="s">
         <v>147</v>
       </c>
@@ -2839,69 +2857,88 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63AE636-BC2E-EA44-A618-002BB58724B6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="24" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="2" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="24" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>164</v>
       </c>
       <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
         <v>165</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>167</v>
       </c>
       <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
         <v>165</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D60908A-8A28-684C-A3FD-C714F2D4EEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E6067-A74B-2846-A87D-4A91B6F876E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60000" yWindow="5180" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="60000" yWindow="5180" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId4"/>
-    <sheet name="studyDesignII" sheetId="5" r:id="rId5"/>
-    <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
-    <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId8"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId9"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId10"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId11"/>
-    <sheet name="configuration" sheetId="10" r:id="rId12"/>
+    <sheet name="studyDesignArms" sheetId="14" r:id="rId4"/>
+    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId5"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
+    <sheet name="studyDesignII" sheetId="5" r:id="rId7"/>
+    <sheet name="studyDesignPopulations" sheetId="6" r:id="rId8"/>
+    <sheet name="studyDesignOE" sheetId="7" r:id="rId9"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId10"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId11"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId12"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId13"/>
+    <sheet name="configuration" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1391,6 +1393,171 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62082F24-2285-8041-915D-AB36C0D2CF6F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63AE636-BC2E-EA44-A618-002BB58724B6}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="24" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4154CB4E-EAA7-494D-AF71-EA9F1872735B}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1672,7 +1839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020DE536-FA14-3149-8856-3933D89EC48F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1761,7 +1928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FB390-8E4D-2044-99CB-68022604372C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2058,6 +2225,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4315C35-D7F6-D441-BAA4-83D5A5983A3B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DCDC2E-1983-374F-887E-CD749D9912B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2539,7 +2734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAD8777-8987-924C-9761-6675C8DC06D1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2628,7 +2823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF479F8C-1E70-3F42-8111-5149A1D657BC}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2718,7 +2913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D034D1-007E-EE43-A36B-40FDFE01FACC}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2778,169 +2973,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62082F24-2285-8041-915D-AB36C0D2CF6F}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="61.83203125" customWidth="1"/>
-    <col min="7" max="8" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63AE636-BC2E-EA44-A618-002BB58724B6}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" style="24" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D5" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/source_data/cycles_1.xlsx
+++ b/source_data/cycles_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E6067-A74B-2846-A87D-4A91B6F876E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4C6AD3-FEA0-3D4F-B68F-EA4765A0F395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60000" yWindow="5180" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="33440" yWindow="4580" windowWidth="33600" windowHeight="19480" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="257">
   <si>
     <t>Epoch</t>
   </si>
@@ -763,6 +763,63 @@
   </si>
   <si>
     <t>Test Nine</t>
+  </si>
+  <si>
+    <t>studyEpochName</t>
+  </si>
+  <si>
+    <t>studyEpochDescription</t>
+  </si>
+  <si>
+    <t>studyEpochType</t>
+  </si>
+  <si>
+    <t>Screening Epoch</t>
+  </si>
+  <si>
+    <t>SCREENING</t>
+  </si>
+  <si>
+    <t>Treatment Epoch</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>Follow-up Epoch</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>studyArmName</t>
+  </si>
+  <si>
+    <t>studyArmDescription</t>
+  </si>
+  <si>
+    <t>studyArmType</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginDescription</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginType</t>
+  </si>
+  <si>
+    <t>Active Substance</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>Data collected from subjects</t>
+  </si>
+  <si>
+    <t>Data Generated Within Study</t>
+  </si>
+  <si>
+    <t>Placebo Comparator Arm</t>
   </si>
 </sst>
 </file>
@@ -2226,28 +2283,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4315C35-D7F6-D441-BAA4-83D5A5983A3B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DCDC2E-1983-374F-887E-CD749D9912B4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
